--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxUnLock.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxUnLock.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
